--- a/MEGA_PIN#.xlsx
+++ b/MEGA_PIN#.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l0ve1\Desktop\3학년\한이음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\Smart_Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA09088-FADF-41CF-BB23-CDB11CAB1D96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D7443-8078-474E-80F2-031931C57427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFF6C725-D769-4B79-A938-957691EEF8EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CFF6C725-D769-4B79-A938-957691EEF8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,20 +210,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -232,14 +253,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +595,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,553 +606,599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>26</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>31</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>39</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>40</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>41</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>42</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>43</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>44</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>45</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>46</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>47</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2">
         <v>48</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5">
         <v>50</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5">
         <v>51</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H30" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/MEGA_PIN#.xlsx
+++ b/MEGA_PIN#.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\Smart_Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exon9\Documents\GitHub\Smart_Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D7443-8078-474E-80F2-031931C57427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517B49FC-4607-487C-9515-4CC893C9D32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CFF6C725-D769-4B79-A938-957691EEF8EE}"/>
+    <workbookView xWindow="5880" yWindow="640" windowWidth="14400" windowHeight="7360" xr2:uid="{CFF6C725-D769-4B79-A938-957691EEF8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,18 +594,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C801AAC4-F83A-42CF-92B7-BC9D694626D3}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1176,7 +1176,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1187,7 +1187,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
